--- a/Algorithm practice.xlsx
+++ b/Algorithm practice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Buy</t>
   </si>
@@ -85,12 +85,24 @@
   </si>
   <si>
     <t>Amount needed based on 20% return</t>
+  </si>
+  <si>
+    <t>group daysell</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>annulized return</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -160,11 +172,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -507,13 +520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:P66"/>
+  <dimension ref="C3:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:16">
       <c r="C3" t="s">
@@ -1230,7 +1247,7 @@
         <v>1.2</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P27:P34" si="7">O28*O27*L27</f>
+        <f t="shared" ref="P28:P34" si="7">O28*O27*L27</f>
         <v>0</v>
       </c>
     </row>
@@ -1345,7 +1362,7 @@
         <v>1.196</v>
       </c>
     </row>
-    <row r="33" spans="9:16">
+    <row r="33" spans="4:16">
       <c r="I33">
         <v>7</v>
       </c>
@@ -1372,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:16">
+    <row r="34" spans="4:16">
       <c r="I34">
         <v>8</v>
       </c>
@@ -1397,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="9:16">
+    <row r="35" spans="4:16">
       <c r="I35">
         <v>9</v>
       </c>
@@ -1415,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:16">
+    <row r="36" spans="4:16">
       <c r="I36">
         <v>10</v>
       </c>
@@ -1436,7 +1453,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="9:16">
+    <row r="37" spans="4:16">
       <c r="I37">
         <v>11</v>
       </c>
@@ -1454,7 +1471,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="9:16">
+    <row r="38" spans="4:16">
       <c r="I38">
         <v>12</v>
       </c>
@@ -1472,7 +1489,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="9:16">
+    <row r="42" spans="4:16">
       <c r="N42" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="9:16">
+    <row r="43" spans="4:16">
       <c r="K43">
         <v>363</v>
       </c>
@@ -1499,7 +1516,7 @@
         <v>2153.8460000000005</v>
       </c>
     </row>
-    <row r="44" spans="9:16">
+    <row r="44" spans="4:16">
       <c r="K44">
         <v>1615</v>
       </c>
@@ -1518,7 +1535,7 @@
         <v>912.92099999999994</v>
       </c>
     </row>
-    <row r="45" spans="9:16">
+    <row r="45" spans="4:16">
       <c r="K45">
         <v>2325</v>
       </c>
@@ -1537,7 +1554,16 @@
         <v>829.08199999999999</v>
       </c>
     </row>
-    <row r="46" spans="9:16">
+    <row r="46" spans="4:16">
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
       <c r="K46">
         <v>2468</v>
       </c>
@@ -1556,7 +1582,16 @@
         <v>1208.9879999999998</v>
       </c>
     </row>
-    <row r="47" spans="9:16">
+    <row r="47" spans="4:16">
+      <c r="D47">
+        <v>363</v>
+      </c>
+      <c r="E47">
+        <v>2.1538461538461</v>
+      </c>
+      <c r="F47">
+        <v>79.026666666666401</v>
+      </c>
       <c r="K47">
         <v>3411</v>
       </c>
@@ -1575,7 +1610,16 @@
         <v>1006.923</v>
       </c>
     </row>
-    <row r="48" spans="9:16">
+    <row r="48" spans="4:16">
+      <c r="D48">
+        <v>1615</v>
+      </c>
+      <c r="E48">
+        <v>0.91292134831459704</v>
+      </c>
+      <c r="F48">
+        <v>48.165730337078799</v>
+      </c>
       <c r="K48">
         <v>3420</v>
       </c>
@@ -1594,7 +1638,16 @@
         <v>1059.279</v>
       </c>
     </row>
-    <row r="49" spans="11:15">
+    <row r="49" spans="4:15">
+      <c r="D49">
+        <v>2325</v>
+      </c>
+      <c r="E49">
+        <v>0.82908163265306101</v>
+      </c>
+      <c r="F49">
+        <v>46.456632653061199</v>
+      </c>
       <c r="K49">
         <v>3483</v>
       </c>
@@ -1613,7 +1666,16 @@
         <v>939.279</v>
       </c>
     </row>
-    <row r="50" spans="11:15">
+    <row r="50" spans="4:15">
+      <c r="D50">
+        <v>2468</v>
+      </c>
+      <c r="E50">
+        <v>1.20898815730672</v>
+      </c>
+      <c r="F50">
+        <v>57.208127886190603</v>
+      </c>
       <c r="K50">
         <v>3572</v>
       </c>
@@ -1632,7 +1694,16 @@
         <v>1066.961</v>
       </c>
     </row>
-    <row r="51" spans="11:15">
+    <row r="51" spans="4:15">
+      <c r="D51">
+        <v>3398</v>
+      </c>
+      <c r="E51">
+        <v>0.99502487562189101</v>
+      </c>
+      <c r="F51">
+        <v>18.687499999999801</v>
+      </c>
       <c r="K51">
         <v>4191</v>
       </c>
@@ -1651,7 +1722,16 @@
         <v>920.56400000000008</v>
       </c>
     </row>
-    <row r="52" spans="11:15">
+    <row r="52" spans="4:15">
+      <c r="D52">
+        <v>3420</v>
+      </c>
+      <c r="E52">
+        <v>1.0592790081533101</v>
+      </c>
+      <c r="F52">
+        <v>28.3831375092707</v>
+      </c>
       <c r="K52">
         <v>4515</v>
       </c>
@@ -1670,7 +1750,16 @@
         <v>1202.8150000000001</v>
       </c>
     </row>
-    <row r="53" spans="11:15">
+    <row r="53" spans="4:15">
+      <c r="D53">
+        <v>3467</v>
+      </c>
+      <c r="E53">
+        <v>1.00246837395863</v>
+      </c>
+      <c r="F53">
+        <v>3.0064794816414602</v>
+      </c>
       <c r="K53">
         <v>5064</v>
       </c>
@@ -1689,7 +1778,16 @@
         <v>1067.4289999999999</v>
       </c>
     </row>
-    <row r="54" spans="11:15">
+    <row r="54" spans="4:15">
+      <c r="D54">
+        <v>3483</v>
+      </c>
+      <c r="E54">
+        <v>0.93927860578539601</v>
+      </c>
+      <c r="F54">
+        <v>45.924879305553702</v>
+      </c>
       <c r="K54">
         <v>5934</v>
       </c>
@@ -1708,16 +1806,34 @@
         <v>1036.873</v>
       </c>
     </row>
-    <row r="55" spans="11:15">
+    <row r="55" spans="4:15">
+      <c r="D55">
+        <v>3572</v>
+      </c>
+      <c r="E55">
+        <v>1.06696066916171</v>
+      </c>
+      <c r="F55">
+        <v>53.787203334225197</v>
+      </c>
       <c r="L55" t="s">
         <v>14</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="4">
         <f>AVERAGE(M43:M54)</f>
         <v>0.11708</v>
       </c>
     </row>
-    <row r="56" spans="11:15">
+    <row r="56" spans="4:15">
+      <c r="D56">
+        <v>4191</v>
+      </c>
+      <c r="E56">
+        <v>0.92056421677801403</v>
+      </c>
+      <c r="F56">
+        <v>47.493318485523503</v>
+      </c>
       <c r="L56" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1850,16 @@
         <v>0.28573965499999987</v>
       </c>
     </row>
-    <row r="57" spans="11:15">
+    <row r="57" spans="4:15">
+      <c r="D57">
+        <v>4515</v>
+      </c>
+      <c r="E57">
+        <v>1.2028148682786299</v>
+      </c>
+      <c r="F57">
+        <v>57.209671598701398</v>
+      </c>
       <c r="L57" t="s">
         <v>15</v>
       </c>
@@ -1747,7 +1872,16 @@
         <v>2.2828545454545449E-2</v>
       </c>
     </row>
-    <row r="58" spans="11:15">
+    <row r="58" spans="4:15">
+      <c r="D58">
+        <v>5064</v>
+      </c>
+      <c r="E58">
+        <v>1.0674287108551599</v>
+      </c>
+      <c r="F58">
+        <v>49.526371096971197</v>
+      </c>
       <c r="K58" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +1893,16 @@
         <v>0.11824642293478785</v>
       </c>
     </row>
-    <row r="59" spans="11:15">
+    <row r="59" spans="4:15">
+      <c r="D59">
+        <v>5934</v>
+      </c>
+      <c r="E59">
+        <v>1.03687315634218</v>
+      </c>
+      <c r="F59">
+        <v>45.9277286135693</v>
+      </c>
       <c r="L59" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1915,7 @@
         <v>0.10130000162778938</v>
       </c>
     </row>
-    <row r="60" spans="11:15">
+    <row r="60" spans="4:15">
       <c r="L60" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1928,25 @@
         <v>-5.5642910718698479E-2</v>
       </c>
     </row>
-    <row r="64" spans="11:15">
+    <row r="61" spans="4:15">
+      <c r="E61" s="4">
+        <f>AVERAGE(E47:E59)-1</f>
+        <v>0.10734844438887703</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15">
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
       <c r="M64" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +1954,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="13:15">
+    <row r="65" spans="4:15">
+      <c r="D65">
+        <v>363</v>
+      </c>
+      <c r="E65">
+        <v>2.1538461538461</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>46.069294482916298</v>
+      </c>
       <c r="M65">
         <v>60000</v>
       </c>
@@ -1802,10 +1975,182 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="66" spans="13:15">
+    <row r="66" spans="4:15">
+      <c r="D66">
+        <v>1615</v>
+      </c>
+      <c r="E66">
+        <v>0.91292134831459704</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66" s="2">
+        <v>-0.36704114160190099</v>
+      </c>
       <c r="M66">
         <f>M65*0.73-15000</f>
         <v>28800</v>
+      </c>
+    </row>
+    <row r="67" spans="4:15">
+      <c r="D67">
+        <v>2325</v>
+      </c>
+      <c r="E67">
+        <v>0.82908163265306101</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67" s="2">
+        <v>-0.60973606816437498</v>
+      </c>
+    </row>
+    <row r="68" spans="4:15">
+      <c r="D68">
+        <v>2468</v>
+      </c>
+      <c r="E68">
+        <v>1.20898815730672</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1.59273824898967</v>
+      </c>
+    </row>
+    <row r="69" spans="4:15">
+      <c r="D69">
+        <v>3398</v>
+      </c>
+      <c r="E69">
+        <v>0.99502487562189101</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69" s="2">
+        <v>-6.3764328477526402E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:15">
+      <c r="D70">
+        <v>3420</v>
+      </c>
+      <c r="E70">
+        <v>1.0592790081533101</v>
+      </c>
+      <c r="F70">
+        <v>28</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.67571464729467801</v>
+      </c>
+    </row>
+    <row r="71" spans="4:15">
+      <c r="D71">
+        <v>3467</v>
+      </c>
+      <c r="E71">
+        <v>1.00246837395863</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.229080286088643</v>
+      </c>
+    </row>
+    <row r="72" spans="4:15">
+      <c r="D72">
+        <v>3483</v>
+      </c>
+      <c r="E72">
+        <v>0.93927860578539601</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72" s="2">
+        <v>-0.26982318205502198</v>
+      </c>
+    </row>
+    <row r="73" spans="4:15">
+      <c r="D73">
+        <v>3572</v>
+      </c>
+      <c r="E73">
+        <v>1.06696066916171</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.38453844958487299</v>
+      </c>
+    </row>
+    <row r="74" spans="4:15">
+      <c r="D74">
+        <v>4191</v>
+      </c>
+      <c r="E74">
+        <v>0.92056421677801403</v>
+      </c>
+      <c r="F74">
+        <v>50</v>
+      </c>
+      <c r="G74" s="2">
+        <v>-0.33998846009679301</v>
+      </c>
+    </row>
+    <row r="75" spans="4:15">
+      <c r="D75">
+        <v>4515</v>
+      </c>
+      <c r="E75">
+        <v>1.2028148682786299</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1.52695736857269</v>
+      </c>
+    </row>
+    <row r="76" spans="4:15">
+      <c r="D76">
+        <v>5064</v>
+      </c>
+      <c r="E76">
+        <v>1.0674287108551599</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.38759005092714</v>
+      </c>
+    </row>
+    <row r="77" spans="4:15">
+      <c r="D77">
+        <v>5934</v>
+      </c>
+      <c r="E77">
+        <v>1.03687315634218</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.199340966596803</v>
+      </c>
+    </row>
+    <row r="78" spans="4:15">
+      <c r="G78" s="3">
+        <f>AVERAGE(G66:G77)</f>
+        <v>0.27880056980490664</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithm practice.xlsx
+++ b/Algorithm practice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Buy</t>
   </si>
@@ -94,16 +94,45 @@
   </si>
   <si>
     <t>annulized return</t>
+  </si>
+  <si>
+    <t>trade group</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>t-state 2 tail 95% (10 df)</t>
+  </si>
+  <si>
+    <t>downside dev</t>
+  </si>
+  <si>
+    <t>annualized return</t>
+  </si>
+  <si>
+    <t>Sortino Ratio Anualzd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,44 +187,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="21">
+    <cellStyle name="Comma" xfId="12" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="13106400"/>
+          <a:ext cx="4787900" cy="3251200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,16 +614,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:P78"/>
+  <dimension ref="C3:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="L35" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44:V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16">
@@ -1362,7 +1458,7 @@
         <v>1.196</v>
       </c>
     </row>
-    <row r="33" spans="4:16">
+    <row r="33" spans="4:23">
       <c r="I33">
         <v>7</v>
       </c>
@@ -1389,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:16">
+    <row r="34" spans="4:23">
       <c r="I34">
         <v>8</v>
       </c>
@@ -1414,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:16">
+    <row r="35" spans="4:23">
       <c r="I35">
         <v>9</v>
       </c>
@@ -1432,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:16">
+    <row r="36" spans="4:23">
       <c r="I36">
         <v>10</v>
       </c>
@@ -1453,7 +1549,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="4:16">
+    <row r="37" spans="4:23">
       <c r="I37">
         <v>11</v>
       </c>
@@ -1471,7 +1567,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="4:16">
+    <row r="38" spans="4:23">
       <c r="I38">
         <v>12</v>
       </c>
@@ -1489,7 +1585,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="4:16">
+    <row r="42" spans="4:23">
       <c r="N42" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="4:16">
+    <row r="43" spans="4:23">
       <c r="K43">
         <v>363</v>
       </c>
@@ -1515,8 +1611,26 @@
         <f>1000+(N43*M43)</f>
         <v>2153.8460000000005</v>
       </c>
-    </row>
-    <row r="44" spans="4:16">
+      <c r="R43" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s">
+        <v>23</v>
+      </c>
+      <c r="U43" t="s">
+        <v>29</v>
+      </c>
+      <c r="V43" t="s">
+        <v>30</v>
+      </c>
+      <c r="W43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="4:23">
       <c r="K44">
         <v>1615</v>
       </c>
@@ -1534,8 +1648,29 @@
         <f t="shared" ref="O44:O54" si="10">1000+(N44*M44)</f>
         <v>912.92099999999994</v>
       </c>
-    </row>
-    <row r="45" spans="4:16">
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>1615</v>
+      </c>
+      <c r="S44">
+        <v>0.96629213483147902</v>
+      </c>
+      <c r="T44">
+        <v>51</v>
+      </c>
+      <c r="U44" s="2">
+        <v>7.4854475438625098E-2</v>
+      </c>
+      <c r="V44" s="2">
+        <v>-0.15528503520279999</v>
+      </c>
+      <c r="W44">
+        <v>-2.07449233052367</v>
+      </c>
+    </row>
+    <row r="45" spans="4:23">
       <c r="K45">
         <v>2325</v>
       </c>
@@ -1553,8 +1688,29 @@
         <f t="shared" si="10"/>
         <v>829.08199999999999</v>
       </c>
-    </row>
-    <row r="46" spans="4:16">
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>2325</v>
+      </c>
+      <c r="S45">
+        <v>0.82525510204082198</v>
+      </c>
+      <c r="T45">
+        <v>51</v>
+      </c>
+      <c r="U45" s="2">
+        <v>3.8453486031225899E-2</v>
+      </c>
+      <c r="V45" s="2">
+        <v>-0.61141754256429803</v>
+      </c>
+      <c r="W45">
+        <v>-15.9001850200993</v>
+      </c>
+    </row>
+    <row r="46" spans="4:23">
       <c r="D46" t="s">
         <v>22</v>
       </c>
@@ -1581,8 +1737,29 @@
         <f t="shared" si="10"/>
         <v>1208.9879999999998</v>
       </c>
-    </row>
-    <row r="47" spans="4:16">
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>2468</v>
+      </c>
+      <c r="S46">
+        <v>1.2001955161626601</v>
+      </c>
+      <c r="T46">
+        <v>51</v>
+      </c>
+      <c r="U46" s="2">
+        <v>3.2357648323118299E-2</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1.4549585091439401</v>
+      </c>
+      <c r="W46">
+        <v>44.964902721451097</v>
+      </c>
+    </row>
+    <row r="47" spans="4:23">
       <c r="D47">
         <v>363</v>
       </c>
@@ -1609,8 +1786,29 @@
         <f t="shared" si="10"/>
         <v>1006.923</v>
       </c>
-    </row>
-    <row r="48" spans="4:16">
+      <c r="Q47">
+        <v>7</v>
+      </c>
+      <c r="R47">
+        <v>3420</v>
+      </c>
+      <c r="S47">
+        <v>1.12203825544489</v>
+      </c>
+      <c r="T47">
+        <v>51</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1.9535479907329699E-2</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0.76244734805713499</v>
+      </c>
+      <c r="W47">
+        <v>39.028851693121801</v>
+      </c>
+    </row>
+    <row r="48" spans="4:23">
       <c r="D48">
         <v>1615</v>
       </c>
@@ -1637,8 +1835,29 @@
         <f t="shared" si="10"/>
         <v>1059.279</v>
       </c>
-    </row>
-    <row r="49" spans="4:15">
+      <c r="Q48">
+        <v>8</v>
+      </c>
+      <c r="R48">
+        <v>3483</v>
+      </c>
+      <c r="S48">
+        <v>0.95707743574873305</v>
+      </c>
+      <c r="T48">
+        <v>51</v>
+      </c>
+      <c r="U48" s="2">
+        <v>2.4036233139006401E-2</v>
+      </c>
+      <c r="V48" s="2">
+        <v>-0.19419541616059399</v>
+      </c>
+      <c r="W48">
+        <v>-8.0792782728276293</v>
+      </c>
+    </row>
+    <row r="49" spans="4:23">
       <c r="D49">
         <v>2325</v>
       </c>
@@ -1665,8 +1884,29 @@
         <f t="shared" si="10"/>
         <v>939.279</v>
       </c>
-    </row>
-    <row r="50" spans="4:15">
+      <c r="Q49">
+        <v>9</v>
+      </c>
+      <c r="R49">
+        <v>3572</v>
+      </c>
+      <c r="S49">
+        <v>1.0770783996451401</v>
+      </c>
+      <c r="T49">
+        <v>51</v>
+      </c>
+      <c r="U49" s="2">
+        <v>2.0358283372494401E-2</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0.44114400889793998</v>
+      </c>
+      <c r="W49">
+        <v>21.669018002468601</v>
+      </c>
+    </row>
+    <row r="50" spans="4:23">
       <c r="D50">
         <v>2468</v>
       </c>
@@ -1693,8 +1933,29 @@
         <f t="shared" si="10"/>
         <v>1066.961</v>
       </c>
-    </row>
-    <row r="51" spans="4:15">
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="R50">
+        <v>4191</v>
+      </c>
+      <c r="S50">
+        <v>0.90868596881959995</v>
+      </c>
+      <c r="T50">
+        <v>51</v>
+      </c>
+      <c r="U50" s="2">
+        <v>4.1000357291900602E-2</v>
+      </c>
+      <c r="V50" s="2">
+        <v>-0.37578992877538903</v>
+      </c>
+      <c r="W50">
+        <v>-9.1655281464979801</v>
+      </c>
+    </row>
+    <row r="51" spans="4:23">
       <c r="D51">
         <v>3398</v>
       </c>
@@ -1721,8 +1982,29 @@
         <f t="shared" si="10"/>
         <v>920.56400000000008</v>
       </c>
-    </row>
-    <row r="52" spans="4:15">
+      <c r="Q51">
+        <v>11</v>
+      </c>
+      <c r="R51">
+        <v>4515</v>
+      </c>
+      <c r="S51">
+        <v>1.23256780333705</v>
+      </c>
+      <c r="T51">
+        <v>51</v>
+      </c>
+      <c r="U51" s="2">
+        <v>3.4110030105347099E-2</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1.79854102736605</v>
+      </c>
+      <c r="W51">
+        <v>52.727629433669399</v>
+      </c>
+    </row>
+    <row r="52" spans="4:23">
       <c r="D52">
         <v>3420</v>
       </c>
@@ -1749,8 +2031,29 @@
         <f t="shared" si="10"/>
         <v>1202.8150000000001</v>
       </c>
-    </row>
-    <row r="53" spans="4:15">
+      <c r="Q52">
+        <v>12</v>
+      </c>
+      <c r="R52">
+        <v>5064</v>
+      </c>
+      <c r="S52">
+        <v>1.06101920820336</v>
+      </c>
+      <c r="T52">
+        <v>51</v>
+      </c>
+      <c r="U52" s="2">
+        <v>2.8509850026406099E-2</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0.33843942805961302</v>
+      </c>
+      <c r="W52">
+        <v>11.870964868147199</v>
+      </c>
+    </row>
+    <row r="53" spans="4:23">
       <c r="D53">
         <v>3467</v>
       </c>
@@ -1777,8 +2080,29 @@
         <f t="shared" si="10"/>
         <v>1067.4289999999999</v>
       </c>
-    </row>
-    <row r="54" spans="4:15">
+      <c r="Q53">
+        <v>13</v>
+      </c>
+      <c r="R53">
+        <v>5934</v>
+      </c>
+      <c r="S53">
+        <v>1.11799410029498</v>
+      </c>
+      <c r="T53">
+        <v>51</v>
+      </c>
+      <c r="U53" s="2">
+        <v>6.6149627827203905E-2</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0.731403860123925</v>
+      </c>
+      <c r="W53">
+        <v>11.0568099042748</v>
+      </c>
+    </row>
+    <row r="54" spans="4:23">
       <c r="D54">
         <v>3483</v>
       </c>
@@ -1805,8 +2129,20 @@
         <f t="shared" si="10"/>
         <v>1036.873</v>
       </c>
-    </row>
-    <row r="55" spans="4:15">
+      <c r="U54" s="2">
+        <f t="shared" ref="U54:V54" si="11">AVERAGE(U44:U53)</f>
+        <v>3.7936547146265751E-2</v>
+      </c>
+      <c r="V54" s="2">
+        <f t="shared" si="11"/>
+        <v>0.41902462589455219</v>
+      </c>
+      <c r="W54">
+        <f>AVERAGE(W44:W53)</f>
+        <v>14.609869285318434</v>
+      </c>
+    </row>
+    <row r="55" spans="4:23">
       <c r="D55">
         <v>3572</v>
       </c>
@@ -1824,7 +2160,7 @@
         <v>0.11708</v>
       </c>
     </row>
-    <row r="56" spans="4:15">
+    <row r="56" spans="4:23">
       <c r="D56">
         <v>4191</v>
       </c>
@@ -1850,7 +2186,7 @@
         <v>0.28573965499999987</v>
       </c>
     </row>
-    <row r="57" spans="4:15">
+    <row r="57" spans="4:23">
       <c r="D57">
         <v>4515</v>
       </c>
@@ -1872,7 +2208,7 @@
         <v>2.2828545454545449E-2</v>
       </c>
     </row>
-    <row r="58" spans="4:15">
+    <row r="58" spans="4:23">
       <c r="D58">
         <v>5064</v>
       </c>
@@ -1893,7 +2229,7 @@
         <v>0.11824642293478785</v>
       </c>
     </row>
-    <row r="59" spans="4:15">
+    <row r="59" spans="4:23">
       <c r="D59">
         <v>5934</v>
       </c>
@@ -1915,7 +2251,7 @@
         <v>0.10130000162778938</v>
       </c>
     </row>
-    <row r="60" spans="4:15">
+    <row r="60" spans="4:23">
       <c r="L60" t="s">
         <v>18</v>
       </c>
@@ -1928,13 +2264,13 @@
         <v>-5.5642910718698479E-2</v>
       </c>
     </row>
-    <row r="61" spans="4:15">
+    <row r="61" spans="4:23">
       <c r="E61" s="4">
         <f>AVERAGE(E47:E59)-1</f>
         <v>0.10734844438887703</v>
       </c>
     </row>
-    <row r="64" spans="4:15">
+    <row r="64" spans="4:23">
       <c r="D64" t="s">
         <v>22</v>
       </c>
@@ -1964,7 +2300,10 @@
       <c r="F65">
         <v>50</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
+        <v>46.069294482916298</v>
+      </c>
+      <c r="H65" s="2">
         <v>46.069294482916298</v>
       </c>
       <c r="M65">
@@ -1988,6 +2327,9 @@
       <c r="G66" s="2">
         <v>-0.36704114160190099</v>
       </c>
+      <c r="H66" s="2">
+        <v>-0.36704114160190099</v>
+      </c>
       <c r="M66">
         <f>M65*0.73-15000</f>
         <v>28800</v>
@@ -2006,6 +2348,9 @@
       <c r="G67" s="2">
         <v>-0.60973606816437498</v>
       </c>
+      <c r="H67" s="2">
+        <v>-0.60973606816437498</v>
+      </c>
     </row>
     <row r="68" spans="4:15">
       <c r="D68">
@@ -2020,6 +2365,9 @@
       <c r="G68" s="2">
         <v>1.59273824898967</v>
       </c>
+      <c r="H68" s="2">
+        <v>1.59273824898967</v>
+      </c>
     </row>
     <row r="69" spans="4:15">
       <c r="D69">
@@ -2034,6 +2382,7 @@
       <c r="G69" s="2">
         <v>-6.3764328477526402E-2</v>
       </c>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="4:15">
       <c r="D70">
@@ -2048,6 +2397,19 @@
       <c r="G70" s="2">
         <v>0.67571464729467801</v>
       </c>
+      <c r="H70" s="2"/>
+      <c r="K70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="71" spans="4:15">
       <c r="D71">
@@ -2062,6 +2424,22 @@
       <c r="G71" s="2">
         <v>0.229080286088643</v>
       </c>
+      <c r="H71" s="2"/>
+      <c r="K71">
+        <v>363</v>
+      </c>
+      <c r="L71">
+        <v>2.07692307692307</v>
+      </c>
+      <c r="M71">
+        <v>51</v>
+      </c>
+      <c r="N71" s="6">
+        <v>35.492728889612003</v>
+      </c>
+      <c r="O71" s="2">
+        <v>35.492728889612003</v>
+      </c>
     </row>
     <row r="72" spans="4:15">
       <c r="D72">
@@ -2076,6 +2454,24 @@
       <c r="G72" s="2">
         <v>-0.26982318205502198</v>
       </c>
+      <c r="H72" s="2">
+        <v>-0.26982318205502198</v>
+      </c>
+      <c r="K72">
+        <v>1615</v>
+      </c>
+      <c r="L72">
+        <v>0.96629213483147902</v>
+      </c>
+      <c r="M72">
+        <v>51</v>
+      </c>
+      <c r="N72" s="6">
+        <v>-0.15528503520279999</v>
+      </c>
+      <c r="O72" s="2">
+        <v>-0.15528503520279999</v>
+      </c>
     </row>
     <row r="73" spans="4:15">
       <c r="D73">
@@ -2090,6 +2486,24 @@
       <c r="G73" s="2">
         <v>0.38453844958487299</v>
       </c>
+      <c r="H73" s="2">
+        <v>0.38453844958487299</v>
+      </c>
+      <c r="K73">
+        <v>2325</v>
+      </c>
+      <c r="L73">
+        <v>0.82525510204082198</v>
+      </c>
+      <c r="M73">
+        <v>51</v>
+      </c>
+      <c r="N73" s="6">
+        <v>-0.61141754256429803</v>
+      </c>
+      <c r="O73" s="2">
+        <v>-0.61141754256429803</v>
+      </c>
     </row>
     <row r="74" spans="4:15">
       <c r="D74">
@@ -2104,6 +2518,24 @@
       <c r="G74" s="2">
         <v>-0.33998846009679301</v>
       </c>
+      <c r="H74" s="2">
+        <v>-0.33998846009679301</v>
+      </c>
+      <c r="K74">
+        <v>2468</v>
+      </c>
+      <c r="L74">
+        <v>1.2001955161626601</v>
+      </c>
+      <c r="M74">
+        <v>51</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1.4549585091439401</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1.4549585091439401</v>
+      </c>
     </row>
     <row r="75" spans="4:15">
       <c r="D75">
@@ -2118,6 +2550,22 @@
       <c r="G75" s="2">
         <v>1.52695736857269</v>
       </c>
+      <c r="H75" s="2">
+        <v>1.52695736857269</v>
+      </c>
+      <c r="K75">
+        <v>3398</v>
+      </c>
+      <c r="L75">
+        <v>0.99502487562189101</v>
+      </c>
+      <c r="M75">
+        <v>19</v>
+      </c>
+      <c r="N75" s="6">
+        <v>-6.3764328477526402E-2</v>
+      </c>
+      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="4:15">
       <c r="D76">
@@ -2132,6 +2580,22 @@
       <c r="G76" s="2">
         <v>0.38759005092714</v>
       </c>
+      <c r="H76" s="2">
+        <v>0.38759005092714</v>
+      </c>
+      <c r="K76">
+        <v>3417</v>
+      </c>
+      <c r="L76">
+        <v>0.95199999999997997</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76" s="6">
+        <v>-0.98368358730499295</v>
+      </c>
+      <c r="O76" s="2"/>
     </row>
     <row r="77" spans="4:15">
       <c r="D77">
@@ -2146,16 +2610,211 @@
       <c r="G77" s="2">
         <v>0.199340966596803</v>
       </c>
+      <c r="H77" s="2">
+        <v>0.199340966596803</v>
+      </c>
+      <c r="K77">
+        <v>3420</v>
+      </c>
+      <c r="L77">
+        <v>1.12203825544489</v>
+      </c>
+      <c r="M77">
+        <v>51</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0.76244734805713499</v>
+      </c>
+      <c r="O77" s="2">
+        <v>0.76244734805713499</v>
+      </c>
     </row>
     <row r="78" spans="4:15">
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
       <c r="G78" s="3">
         <f>AVERAGE(G66:G77)</f>
         <v>0.27880056980490664</v>
       </c>
+      <c r="H78" s="3">
+        <f>AVERAGE(H66:H77)</f>
+        <v>0.27828624808367608</v>
+      </c>
+      <c r="K78">
+        <v>3483</v>
+      </c>
+      <c r="L78">
+        <v>0.95707743574873305</v>
+      </c>
+      <c r="M78">
+        <v>51</v>
+      </c>
+      <c r="N78" s="6">
+        <v>-0.19419541616059399</v>
+      </c>
+      <c r="O78" s="2">
+        <v>-0.19419541616059399</v>
+      </c>
+    </row>
+    <row r="79" spans="4:15">
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79">
+        <f>_xlfn.STDEV.S(G66:G77)</f>
+        <v>0.70591767849649534</v>
+      </c>
+      <c r="H79">
+        <f>_xlfn.STDEV.S(H66:H77)</f>
+        <v>0.80654754007076068</v>
+      </c>
+      <c r="K79">
+        <v>3572</v>
+      </c>
+      <c r="L79">
+        <v>1.0770783996451401</v>
+      </c>
+      <c r="M79">
+        <v>51</v>
+      </c>
+      <c r="N79" s="6">
+        <v>0.44114400889793998</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0.44114400889793998</v>
+      </c>
+    </row>
+    <row r="80" spans="4:15">
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80">
+        <v>4191</v>
+      </c>
+      <c r="L80">
+        <v>0.90868596881959995</v>
+      </c>
+      <c r="M80">
+        <v>51</v>
+      </c>
+      <c r="N80" s="6">
+        <v>-0.37578992877538903</v>
+      </c>
+      <c r="O80" s="2">
+        <v>-0.37578992877538903</v>
+      </c>
+    </row>
+    <row r="81" spans="6:15">
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81">
+        <v>4515</v>
+      </c>
+      <c r="L81">
+        <v>1.23256780333705</v>
+      </c>
+      <c r="M81">
+        <v>51</v>
+      </c>
+      <c r="N81" s="6">
+        <v>1.79854102736605</v>
+      </c>
+      <c r="O81" s="2">
+        <v>1.79854102736605</v>
+      </c>
+    </row>
+    <row r="82" spans="6:15">
+      <c r="K82">
+        <v>5064</v>
+      </c>
+      <c r="L82">
+        <v>1.06101920820336</v>
+      </c>
+      <c r="M82">
+        <v>51</v>
+      </c>
+      <c r="N82" s="6">
+        <v>0.33843942805961302</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0.33843942805961302</v>
+      </c>
+    </row>
+    <row r="83" spans="6:15">
+      <c r="K83">
+        <v>5934</v>
+      </c>
+      <c r="L83">
+        <v>1.11799410029498</v>
+      </c>
+      <c r="M83">
+        <v>51</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0.731403860123925</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0.731403860123925</v>
+      </c>
+    </row>
+    <row r="84" spans="6:15">
+      <c r="N84" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" s="3">
+        <f>AVERAGE(O72:O83)</f>
+        <v>0.41902462589455219</v>
+      </c>
+    </row>
+    <row r="85" spans="6:15">
+      <c r="N85" t="s">
+        <v>27</v>
+      </c>
+      <c r="O85" s="2">
+        <f>_xlfn.STDEV.S(O72:O83)</f>
+        <v>0.78867958226562229</v>
+      </c>
+    </row>
+    <row r="86" spans="6:15">
+      <c r="L86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M86">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="N86" t="s">
+        <v>17</v>
+      </c>
+      <c r="O86">
+        <f>O84+((O85*M86)/SQRT(COUNT(O72:O83)))</f>
+        <v>0.97469313388832646</v>
+      </c>
+    </row>
+    <row r="87" spans="6:15">
+      <c r="L87" s="5"/>
+      <c r="N87" t="s">
+        <v>18</v>
+      </c>
+      <c r="O87">
+        <f>O84-((O85*M86)/SQRT(COUNT(O72:O83)))</f>
+        <v>-0.13664388209922201</v>
+      </c>
+    </row>
+    <row r="89" spans="6:15">
+      <c r="O89" s="6">
+        <f>O84/O85</f>
+        <v>0.53129893979355913</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L86:L87"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
